--- a/采购收支月表201905.xlsx
+++ b/采购收支月表201905.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5263E377-2B09-4AAC-80AE-3861C75EB404}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C988EF-8EF8-41F2-809C-9E61B63A9BFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>收款日期</t>
   </si>
@@ -193,6 +193,18 @@
   </si>
   <si>
     <t>优选订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪咪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荔枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙琪玛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,6 +226,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -640,8 +653,8 @@
   <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -954,8 +967,15 @@
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="2"/>
-      <c r="I12" s="8"/>
+      <c r="G12" s="2">
+        <v>43596</v>
+      </c>
+      <c r="H12" s="12">
+        <v>22.8</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
@@ -970,8 +990,15 @@
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="2"/>
-      <c r="I13" s="8"/>
+      <c r="G13" s="2">
+        <v>43596</v>
+      </c>
+      <c r="H13" s="12">
+        <v>69.8</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
@@ -986,8 +1013,15 @@
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="2"/>
-      <c r="I14" s="8"/>
+      <c r="G14" s="2">
+        <v>43596</v>
+      </c>
+      <c r="H14" s="12">
+        <v>58.8</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
@@ -1165,14 +1199,14 @@
       </c>
       <c r="H26" s="13">
         <f>SUM(H2:H25)</f>
-        <v>737.9</v>
+        <v>889.29999999999984</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J26" s="5">
         <f>B26-H26</f>
-        <v>1484.2399999999998</v>
+        <v>1332.8400000000001</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">

--- a/采购收支月表201905.xlsx
+++ b/采购收支月表201905.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C988EF-8EF8-41F2-809C-9E61B63A9BFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC660D2-3B31-4BCE-A621-931147FBC333}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>收款日期</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>沙琪玛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优选订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺旺雪饼、泡泡干、苹果、香蕉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,8 +665,8 @@
   <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -667,7 +679,7 @@
     <col min="7" max="7" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="12.25" style="12" customWidth="1"/>
     <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="9.25" customWidth="1"/>
+    <col min="10" max="10" width="28.25" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1036,8 +1048,15 @@
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="2"/>
-      <c r="I15" s="8"/>
+      <c r="G15" s="2">
+        <v>43598</v>
+      </c>
+      <c r="H15" s="12">
+        <v>59.4</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -1051,8 +1070,18 @@
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="2"/>
-      <c r="I16" s="8"/>
+      <c r="G16" s="2">
+        <v>43598</v>
+      </c>
+      <c r="H16" s="12">
+        <v>118</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
@@ -1199,14 +1228,14 @@
       </c>
       <c r="H26" s="13">
         <f>SUM(H2:H25)</f>
-        <v>889.29999999999984</v>
+        <v>1066.6999999999998</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J26" s="5">
         <f>B26-H26</f>
-        <v>1332.8400000000001</v>
+        <v>1155.44</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">

--- a/采购收支月表201905.xlsx
+++ b/采购收支月表201905.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC660D2-3B31-4BCE-A621-931147FBC333}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07FFF29-07B7-47C3-AB99-E0F5B527F3F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>收款日期</t>
   </si>
@@ -217,6 +217,14 @@
   </si>
   <si>
     <t>旺旺雪饼、泡泡干、苹果、香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰奶、香瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘子、西瓜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +674,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1095,8 +1103,18 @@
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="2"/>
-      <c r="I17" s="8"/>
+      <c r="G17" s="2">
+        <v>43600</v>
+      </c>
+      <c r="H17" s="12">
+        <v>43.6</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
@@ -1110,8 +1128,18 @@
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="8"/>
+      <c r="G18" s="2">
+        <v>43601</v>
+      </c>
+      <c r="H18" s="12">
+        <v>53.6</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
@@ -1228,14 +1256,14 @@
       </c>
       <c r="H26" s="13">
         <f>SUM(H2:H25)</f>
-        <v>1066.6999999999998</v>
+        <v>1163.8999999999996</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="13">
         <f>B26-H26</f>
-        <v>1155.44</v>
+        <v>1058.2400000000002</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">

--- a/采购收支月表201905.xlsx
+++ b/采购收支月表201905.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07FFF29-07B7-47C3-AB99-E0F5B527F3F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95CB026-B797-4D82-94C3-D26106390AD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>收款日期</t>
   </si>
@@ -225,6 +225,10 @@
   </si>
   <si>
     <t>橘子、西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳酸菌、桃酥、棒棒糖、橙子、香蕉、荔枝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,6 +376,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -391,7 +463,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -672,9 +744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -687,7 +759,7 @@
     <col min="7" max="7" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="12.25" style="12" customWidth="1"/>
     <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="28.25" customWidth="1"/>
+    <col min="10" max="10" width="41" customWidth="1"/>
     <col min="11" max="11" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1153,8 +1225,18 @@
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="2"/>
-      <c r="I19" s="8"/>
+      <c r="G19" s="2">
+        <v>43605</v>
+      </c>
+      <c r="H19" s="12">
+        <v>175.8</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
@@ -1256,14 +1338,14 @@
       </c>
       <c r="H26" s="13">
         <f>SUM(H2:H25)</f>
-        <v>1163.8999999999996</v>
+        <v>1339.6999999999996</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J26" s="13">
         <f>B26-H26</f>
-        <v>1058.2400000000002</v>
+        <v>882.44000000000028</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">

--- a/采购收支月表201905.xlsx
+++ b/采购收支月表201905.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95CB026-B797-4D82-94C3-D26106390AD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D287914E-A3DF-401F-8957-D0D8EDE912D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>收款日期</t>
   </si>
@@ -229,6 +229,14 @@
   </si>
   <si>
     <t>乳酸菌、桃酥、棒棒糖、橙子、香蕉、荔枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜甜圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD钙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +471,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -746,7 +754,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1250,8 +1258,15 @@
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="2"/>
-      <c r="I20" s="8"/>
+      <c r="G20" s="2">
+        <v>43605</v>
+      </c>
+      <c r="H20" s="12">
+        <v>110.4</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -1266,8 +1281,15 @@
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="2"/>
-      <c r="I21" s="8"/>
+      <c r="G21" s="2">
+        <v>43605</v>
+      </c>
+      <c r="H21" s="12">
+        <v>42.8</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
@@ -1338,14 +1360,14 @@
       </c>
       <c r="H26" s="13">
         <f>SUM(H2:H25)</f>
-        <v>1339.6999999999996</v>
+        <v>1492.8999999999996</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J26" s="13">
         <f>B26-H26</f>
-        <v>882.44000000000028</v>
+        <v>729.24000000000024</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">

--- a/采购收支月表201905.xlsx
+++ b/采购收支月表201905.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D287914E-A3DF-401F-8957-D0D8EDE912D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD0D0D2-4108-4996-BD80-AC641215D818}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>收款日期</t>
   </si>
@@ -237,6 +237,18 @@
   </si>
   <si>
     <t>AD钙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙牛鲜牛奶x2、葡萄干x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫了个炸鸡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1303,8 +1315,18 @@
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="2"/>
-      <c r="I22" s="8"/>
+      <c r="G22" s="2">
+        <v>43607</v>
+      </c>
+      <c r="H22" s="12">
+        <v>53.4</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
@@ -1318,8 +1340,18 @@
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="2"/>
-      <c r="I23" s="8"/>
+      <c r="G23" s="2">
+        <v>43607</v>
+      </c>
+      <c r="H23" s="12">
+        <v>56.8</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
@@ -1333,8 +1365,15 @@
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="2"/>
-      <c r="I24" s="8"/>
+      <c r="G24" s="2">
+        <v>43607</v>
+      </c>
+      <c r="H24" s="12">
+        <v>177.8</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
@@ -1360,14 +1399,14 @@
       </c>
       <c r="H26" s="13">
         <f>SUM(H2:H25)</f>
-        <v>1492.8999999999996</v>
+        <v>1780.8999999999996</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J26" s="13">
         <f>B26-H26</f>
-        <v>729.24000000000024</v>
+        <v>441.24000000000024</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">

--- a/采购收支月表201905.xlsx
+++ b/采购收支月表201905.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD0D0D2-4108-4996-BD80-AC641215D818}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E103FF-4A6D-4402-B055-604D6DF4BD3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>收款日期</t>
   </si>
@@ -249,6 +249,10 @@
   </si>
   <si>
     <t>叫了个炸鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙签牛肉x2、威化饼干x4、猕猴桃x5、苹果桃x5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +487,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -762,11 +766,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1369,7 +1373,7 @@
         <v>43607</v>
       </c>
       <c r="H24" s="12">
-        <v>177.8</v>
+        <v>187.8</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>56</v>
@@ -1379,73 +1383,111 @@
       <c r="A25" s="2"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="2"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+      <c r="G25" s="2">
+        <v>43610</v>
+      </c>
+      <c r="H25" s="12">
+        <v>126.3</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="2"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="2"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="2"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="2"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B30" s="5">
         <f>SUM(B2:B25)</f>
         <v>2222.14</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="13">
-        <f>SUM(H2:H25)</f>
-        <v>1780.8999999999996</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="13">
-        <f>B26-H26</f>
-        <v>441.24000000000024</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="3"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="3"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
+      <c r="G30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="13">
+        <f>SUM(H2:H29)</f>
+        <v>1917.1999999999996</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="13">
+        <f>B30-H30</f>
+        <v>304.94000000000028</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="D31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="3"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="3"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:F30"/>
+    <mergeCell ref="E1:F34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/采购收支月表201905.xlsx
+++ b/采购收支月表201905.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\大锅饭账单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E103FF-4A6D-4402-B055-604D6DF4BD3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160EE866-2C10-4005-821D-1DF77DBCB10B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>收款日期</t>
   </si>
@@ -253,6 +253,22 @@
   </si>
   <si>
     <t>牙签牛肉x2、威化饼干x4、猕猴桃x5、苹果桃x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荔枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎冰冰、大辣片、芒果、香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨梅、瓜、葡萄、豆本豆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +503,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -770,7 +786,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H25"/>
+      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1400,29 +1416,66 @@
       <c r="A26" s="2"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="2"/>
-      <c r="I26" s="8"/>
+      <c r="G26" s="2">
+        <v>43612</v>
+      </c>
+      <c r="H26" s="12">
+        <v>59.8</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="2"/>
-      <c r="I27" s="8"/>
+      <c r="G27" s="2">
+        <v>43612</v>
+      </c>
+      <c r="H27" s="12">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="2"/>
-      <c r="I28" s="8"/>
+      <c r="G28" s="2">
+        <v>43614</v>
+      </c>
+      <c r="H28" s="12">
+        <v>87.55</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="2"/>
-      <c r="I29" s="8"/>
+      <c r="G29" s="2">
+        <v>43615</v>
+      </c>
+      <c r="H29" s="12">
+        <v>113.7</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
@@ -1441,14 +1494,14 @@
       </c>
       <c r="H30" s="13">
         <f>SUM(H2:H29)</f>
-        <v>1917.1999999999996</v>
+        <v>2215.0499999999993</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J30" s="13">
         <f>B30-H30</f>
-        <v>304.94000000000028</v>
+        <v>7.0900000000006003</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
